--- a/scripts/Monitoramento/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/scripts/Monitoramento/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_262F3D9ABD0E946A53B5C4A0552ADE3D1A2A3A58" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{775FE856-4916-40CF-9583-D42A1CDC61D2}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_ABAAFB0C2B1C0F7A761C4804DC404BA8A3EE2A40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38187DF2-D130-4A40-BDEF-C729F7FDB28A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="10" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,11 +411,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -476,6 +471,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF66FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF993399"/>
         <bgColor rgb="FF993399"/>
       </patternFill>
@@ -484,12 +485,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF006400"/>
         <bgColor rgb="FF006400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FF66"/>
-        <bgColor rgb="FF66FF66"/>
       </patternFill>
     </fill>
     <fill>
@@ -590,20 +585,23 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -649,9 +647,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2610,7 +2605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2618,7 +2613,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2671,63 +2666,63 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="19">
         <f ca="1">COUNTIF(INDIRECT(B$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="19">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="19">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="19">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="19">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="19">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="19">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="19">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="19">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="19">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="19">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="19">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A2)</f>
         <v>3</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="19">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="19">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="20">
         <f ca="1">SUM(B2:O2)</f>
         <v>51</v>
       </c>
@@ -2736,63 +2731,63 @@
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="21">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="21">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="21">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="21">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="21">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="21">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="21">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="21">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="21">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="21">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="21">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="21">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="21">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="21">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="22">
         <f ca="1">SUM(B3:O3)</f>
         <v>0</v>
       </c>
@@ -2801,63 +2796,63 @@
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="23">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="23">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="23">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="23">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="23">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="23">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="23">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="23">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="23">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="23">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A4)</f>
         <v>1</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="23">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="23">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="24">
         <f ca="1">SUM(B4:O4)</f>
         <v>1</v>
       </c>
@@ -2866,63 +2861,63 @@
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="25">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="25">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="25">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="25">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="25">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="25">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="25">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="25">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="25">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="25">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="25">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="25">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="25">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="25">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="26">
         <f ca="1">SUM(B5:O5)</f>
         <v>0</v>
       </c>
@@ -2931,63 +2926,63 @@
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="27">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="27">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="27">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="27">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="27">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="27">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="27">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="27">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="27">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="27">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="27">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="27">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="27">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="27">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="28">
         <f ca="1">SUM(B6:O6)</f>
         <v>0</v>
       </c>
@@ -2996,63 +2991,63 @@
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="29">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="29">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="29">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="29">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="29">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="29">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="29">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="29">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="29">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="29">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="29">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="29">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="29">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="29">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="30">
         <f ca="1">SUM(B7:O7)</f>
         <v>0</v>
       </c>
@@ -3061,63 +3056,63 @@
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="31">
         <f ca="1">SUM(B2:B7)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="31">
         <f ca="1">SUM(C2:C7)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="31">
         <f ca="1">SUM(D2:D7)</f>
         <v>4</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="31">
         <f ca="1">SUM(E2:E7)</f>
         <v>4</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="31">
         <f ca="1">SUM(F2:F7)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="31">
         <f ca="1">SUM(G2:G7)</f>
         <v>4</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="31">
         <f ca="1">SUM(H2:H7)</f>
         <v>4</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="31">
         <f ca="1">SUM(I2:I7)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="31">
         <f ca="1">SUM(J2:J7)</f>
         <v>4</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="31">
         <f ca="1">SUM(K2:K7)</f>
         <v>4</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="31">
         <f ca="1">SUM(L2:L7)</f>
         <v>4</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="31">
         <f ca="1">SUM(M2:M7)</f>
         <v>4</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="31">
         <f ca="1">SUM(N2:N7)</f>
         <v>4</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="31">
         <f ca="1">SUM(O2:O7)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="31">
         <f ca="1">SUM(B8:O8)</f>
         <v>52</v>
       </c>
@@ -3133,7 +3128,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3144,7 +3139,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -3215,7 +3210,7 @@
       </c>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="24">
+    <row r="3" spans="1:11" ht="24" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
@@ -3238,7 +3233,7 @@
       <c r="G3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I3" s="12"/>
@@ -3349,13 +3344,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G5" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J5" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E5" xr:uid="{00000000-0002-0000-0900-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3369,7 +3364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3380,7 +3375,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -3451,7 +3446,7 @@
       </c>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="24">
+    <row r="3" spans="1:11" ht="24" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
@@ -3474,7 +3469,7 @@
       <c r="G3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I3" s="12"/>
@@ -3585,13 +3580,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G5" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J5" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E5" xr:uid="{00000000-0002-0000-0A00-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3604,8 +3599,8 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3616,7 +3611,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -3687,7 +3682,7 @@
       </c>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="24">
+    <row r="3" spans="1:11" ht="24" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
@@ -3710,7 +3705,7 @@
       <c r="G3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I3" s="12"/>
@@ -3821,13 +3816,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J5" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E5" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3841,7 +3836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3851,7 +3846,7 @@
     <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -3922,7 +3917,7 @@
       </c>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="24">
+    <row r="3" spans="1:11" ht="24" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
@@ -3945,7 +3940,7 @@
       <c r="G3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I3" s="12"/>
@@ -3968,7 +3963,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Monica Goreth Costa Ribeiro</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="12"/>
@@ -6002,9 +5997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6246,7 +6241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6348,7 +6343,7 @@
       <c r="F3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="12"/>
